--- a/training_logs/NSC_NSCB_No_Weak.xlsx
+++ b/training_logs/NSC_NSCB_No_Weak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\samba.scp.astrazeneca.net\img\GAN_CP\PAPER_2\BBBC021\Dino_no_weak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\samba.scp.astrazeneca.net\img\GAN_CP\PAPER_2\BBBC021\training_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD986B-D277-40D0-9936-60CCA3C5F168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F5284-AC44-46C2-8003-60BF21F46328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43755" yWindow="0" windowWidth="23445" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="10420" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,12 +557,12 @@
       <c r="F1" s="21"/>
       <c r="G1" s="4"/>
       <c r="H1" s="19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
